--- a/pearson_tables/t2m_netherlands-2-12.xlsx
+++ b/pearson_tables/t2m_netherlands-2-12.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7186749039042652</v>
+        <v>-0.7131737602450967</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7242082929556728</v>
+        <v>-0.7850101286121978</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7551381007566107</v>
+        <v>0.8011803641307264</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6014518318972591</v>
+        <v>0.5999845796120017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7895992134367579</v>
+        <v>-0.8695025230349126</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6050771497159337</v>
+        <v>-0.6211954558013203</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6140183775470364</v>
+        <v>0.6094797117492496</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6975347951358947</v>
+        <v>-0.7907510129475015</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5799114199220409</v>
+        <v>0.6473524366391002</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6582155964068193</v>
+        <v>-0.6515268669274742</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5864995136384374</v>
+        <v>-0.5827198377016496</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7244996542207225</v>
+        <v>0.6887386139170816</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6983609055466896</v>
+        <v>0.6859373585917701</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6443589866715964</v>
+        <v>-0.671071621034242</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6671989859783024</v>
+        <v>-0.6792891934400925</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7124250665325041</v>
+        <v>-0.7021928898131928</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5893020559281034</v>
+        <v>-0.6944062258610201</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8183042011271143</v>
+        <v>0.7976176975483849</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7744655949356181</v>
+        <v>-0.7795181946514922</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7012302295031199</v>
+        <v>-0.7061827126860101</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7470539598391637</v>
+        <v>0.6787788146343691</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7793745559367241</v>
+        <v>0.7479216463764629</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.8020498715597739</v>
+        <v>-0.7850241797102324</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6191679630717111</v>
+        <v>-0.5806547261024267</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-2-12.xlsx
+++ b/pearson_tables/t2m_netherlands-2-12.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7131737602450967</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7850101286121978</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8011803641307264</v>
+        <v>-0.7354849458108593</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5999845796120017</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8695025230349126</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6211954558013203</v>
+        <v>-0.7383857496430754</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6094797117492496</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7907510129475015</v>
+        <v>-0.7943852212231091</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6473524366391002</v>
+        <v>-0.6858767186577983</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6515268669274742</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5827198377016496</v>
+        <v>0.6437900668177866</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6887386139170816</v>
+        <v>-0.6523659492315754</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6859373585917701</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.671071621034242</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6792891934400925</v>
+        <v>0.7531522638435943</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7021928898131928</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6944062258610201</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7976176975483849</v>
+        <v>-0.8138762503080088</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7795181946514922</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7061827126860101</v>
+        <v>-0.7026441011123798</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6787788146343691</v>
+        <v>-0.7150381880680573</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7479216463764629</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7850241797102324</v>
+        <v>-0.6507110192375765</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5806547261024267</v>
+        <v>0.6951854922468259</v>
       </c>
     </row>
   </sheetData>
